--- a/PVsData.xlsx
+++ b/PVsData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="113">
   <si>
     <t>_id</t>
   </si>
@@ -22,67 +22,334 @@
     <t>url</t>
   </si>
   <si>
+    <t>ordreDuJour</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
-    <t>"643e9ebadf6408efa9e23463"</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>"644468a8295d5f4cdc710751"</t>
-  </si>
-  <si>
-    <t>PV-2022-001</t>
-  </si>
-  <si>
-    <t>https://example.com/pv/2022/001</t>
-  </si>
-  <si>
-    <t>"644468d0295d5f4cdc710753"</t>
-  </si>
-  <si>
-    <t>PV0005</t>
-  </si>
-  <si>
-    <t>https://example.com/pv/PV0005</t>
-  </si>
-  <si>
-    <t>"644468e8295d5f4cdc710755"</t>
-  </si>
-  <si>
-    <t>PV-1234</t>
-  </si>
-  <si>
-    <t>http://example.com/pv/1234</t>
-  </si>
-  <si>
-    <t>"644468ee295d5f4cdc710757"</t>
-  </si>
-  <si>
-    <t>PV-5678</t>
-  </si>
-  <si>
-    <t>http://example.com/pv/5678</t>
-  </si>
-  <si>
-    <t>"6446d16a60160697e85129c6"</t>
-  </si>
-  <si>
-    <t>"6446dc5d8a08360bf4d220cd"</t>
-  </si>
-  <si>
-    <t>"6446e36dfcaacb6c93e274be"</t>
-  </si>
-  <si>
-    <t>"6446eab9868ae1c69f12996b"</t>
-  </si>
-  <si>
-    <t>gggg</t>
+    <t>"6447d758ea40b620a0481688"</t>
+  </si>
+  <si>
+    <t>quia praesentium enim</t>
+  </si>
+  <si>
+    <t>molestiae aut cupiditate</t>
+  </si>
+  <si>
+    <t>voluptatem ipsam ut illum qui aut autem voluptatem placeat asperiores</t>
+  </si>
+  <si>
+    <t>"6447d758ea40b620a048168a"</t>
+  </si>
+  <si>
+    <t>tempore voluptas amet</t>
+  </si>
+  <si>
+    <t>eligendi delectus ut</t>
+  </si>
+  <si>
+    <t>dolores et nostrum et fugiat totam nihil veritatis aliquam nostrum</t>
+  </si>
+  <si>
+    <t>"6447d758ea40b620a048168c"</t>
+  </si>
+  <si>
+    <t>inventore quis ipsa</t>
+  </si>
+  <si>
+    <t>doloribus molestias velit</t>
+  </si>
+  <si>
+    <t>minima rerum praesentium at deleniti distinctio corporis non blanditiis dolore</t>
+  </si>
+  <si>
+    <t>"6447d758ea40b620a048168e"</t>
+  </si>
+  <si>
+    <t>et qui magni</t>
+  </si>
+  <si>
+    <t>est provident magni</t>
+  </si>
+  <si>
+    <t>commodi harum est dolor voluptatibus molestiae voluptatem cupiditate dolores unde</t>
+  </si>
+  <si>
+    <t>"6447d758ea40b620a0481690"</t>
+  </si>
+  <si>
+    <t>necessitatibus delectus cum</t>
+  </si>
+  <si>
+    <t>sed saepe ea</t>
+  </si>
+  <si>
+    <t>est saepe delectus rerum aut ut aut repellat sunt inventore</t>
+  </si>
+  <si>
+    <t>"6447d758ea40b620a0481692"</t>
+  </si>
+  <si>
+    <t>et dolorem magnam</t>
+  </si>
+  <si>
+    <t>fuga ipsum quo</t>
+  </si>
+  <si>
+    <t>aut repellat porro nemo non dolor rem nam alias perferendis</t>
+  </si>
+  <si>
+    <t>"6447d758ea40b620a0481694"</t>
+  </si>
+  <si>
+    <t>voluptatum sed ut</t>
+  </si>
+  <si>
+    <t>fugiat sed est</t>
+  </si>
+  <si>
+    <t>debitis voluptatem vitae asperiores voluptatem porro provident ex numquam quo</t>
+  </si>
+  <si>
+    <t>"6447d758ea40b620a0481696"</t>
+  </si>
+  <si>
+    <t>maxime deserunt exercitationem</t>
+  </si>
+  <si>
+    <t>nihil dolorem magni</t>
+  </si>
+  <si>
+    <t>ratione sed dolor eligendi non a voluptatem dolore ducimus et</t>
+  </si>
+  <si>
+    <t>"6447d758ea40b620a0481698"</t>
+  </si>
+  <si>
+    <t>eligendi officiis expedita</t>
+  </si>
+  <si>
+    <t>aperiam omnis itaque</t>
+  </si>
+  <si>
+    <t>temporibus quasi beatae nisi unde et delectus rerum sint provident</t>
+  </si>
+  <si>
+    <t>"6447d758ea40b620a048169a"</t>
+  </si>
+  <si>
+    <t>pariatur totam sequi</t>
+  </si>
+  <si>
+    <t>error voluptas iste</t>
+  </si>
+  <si>
+    <t>sit voluptas animi quis sed eius maiores iste id beatae</t>
+  </si>
+  <si>
+    <t>"6447d80dea40b620a04816cf"</t>
+  </si>
+  <si>
+    <t>PV-123</t>
+  </si>
+  <si>
+    <t>https://example.com/PV-123</t>
+  </si>
+  <si>
+    <t>"6447dc97683d50c1a1ef720f"</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>http://example.com</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>"6447ddc216c0c0e61fdcf3ad"</t>
+  </si>
+  <si>
+    <t>PV001</t>
+  </si>
+  <si>
+    <t>Some topic</t>
+  </si>
+  <si>
+    <t>"6447e4131718b26281581d01"</t>
+  </si>
+  <si>
+    <t>"6447e4805ffbc74b894f523d"</t>
+  </si>
+  <si>
+    <t>"64485223525971a12d4fd7f5"</t>
+  </si>
+  <si>
+    <t>"6448531265d74956120c9142"</t>
+  </si>
+  <si>
+    <t>"6448532e65d74956120c9144"</t>
+  </si>
+  <si>
+    <t>"6448538f0016e43588392ac9"</t>
+  </si>
+  <si>
+    <t>"644854e1a773b5bd6b935ba3"</t>
+  </si>
+  <si>
+    <t>PVVVVVV</t>
+  </si>
+  <si>
+    <t>"6448551a0c019b22270c1c17"</t>
+  </si>
+  <si>
+    <t>"64485545c7e4e03a0fa4ba6b"</t>
+  </si>
+  <si>
+    <t>"6448557644d8fcf7eb85566f"</t>
+  </si>
+  <si>
+    <t>"6448630023390c0c63ac74fe"</t>
+  </si>
+  <si>
+    <t>"6448630e23390c0c63ac7501"</t>
+  </si>
+  <si>
+    <t>"644868b8484baa4e8b57eaff"</t>
+  </si>
+  <si>
+    <t>https://example.com/pv001</t>
+  </si>
+  <si>
+    <t>Réunion du comité de thèse</t>
+  </si>
+  <si>
+    <t>"644868e60e0cbfac59b3200e"</t>
+  </si>
+  <si>
+    <t>"64486917dc9af6f4faf60d6a"</t>
+  </si>
+  <si>
+    <t>"644869c39ed289eb197e9da0"</t>
+  </si>
+  <si>
+    <t>"64486a3d3bedd0649d5c7418"</t>
+  </si>
+  <si>
+    <t>"64486a862b85c85266b4fc48"</t>
+  </si>
+  <si>
+    <t>"64486a872b85c85266b4fc4a"</t>
+  </si>
+  <si>
+    <t>"64486a92d69738682a5120f5"</t>
+  </si>
+  <si>
+    <t>"64486a99106d16e35fb6ab44"</t>
+  </si>
+  <si>
+    <t>"64490aa8730002881d1b01ce"</t>
+  </si>
+  <si>
+    <t>pv_code</t>
+  </si>
+  <si>
+    <t>pv_url</t>
+  </si>
+  <si>
+    <t>pv_ordre_du_jour</t>
+  </si>
+  <si>
+    <t>"64490acc730002881d1b01d0"</t>
+  </si>
+  <si>
+    <t>"64490b0585b3f530391e652e"</t>
+  </si>
+  <si>
+    <t>"64490b11c60a1ed752b92703"</t>
+  </si>
+  <si>
+    <t>"64490b1f5d04f1c5d0747a00"</t>
+  </si>
+  <si>
+    <t>"64490cdd5d04f1c5d0747a02"</t>
+  </si>
+  <si>
+    <t>"64490d0f5d04f1c5d0747a0d"</t>
+  </si>
+  <si>
+    <t>"64490d809c94e130e6edbcfd"</t>
+  </si>
+  <si>
+    <t>"64490d9a945d6c5d87136298"</t>
+  </si>
+  <si>
+    <t>"64490de2ae60140a605d79ec"</t>
+  </si>
+  <si>
+    <t>"64490dfc3470ab2fc4c33a90"</t>
+  </si>
+  <si>
+    <t>"6449405f4c9fdebb4ebeedaf"</t>
+  </si>
+  <si>
+    <t>"64495d6d44767fe791592d22"</t>
+  </si>
+  <si>
+    <t>"64495d9444767fe791592d2d"</t>
+  </si>
+  <si>
+    <t>"64495db544767fe791592d35"</t>
+  </si>
+  <si>
+    <t>"64495ddcb1619ea26fd953c1"</t>
+  </si>
+  <si>
+    <t>"644965e648d9ea6222214d4d"</t>
+  </si>
+  <si>
+    <t>Thesis Defense</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>"644965f148d9ea6222214d4f"</t>
+  </si>
+  <si>
+    <t>"64496605388ad2fe328ce2bf"</t>
+  </si>
+  <si>
+    <t>"6449661e388ad2fe328ce2c4"</t>
+  </si>
+  <si>
+    <t>"6449663f388ad2fe328ce2c8"</t>
+  </si>
+  <si>
+    <t>"6449664d37072cc3f7e560e0"</t>
+  </si>
+  <si>
+    <t>"64496682e3b9bada86581732"</t>
+  </si>
+  <si>
+    <t>"644966963535f82d2f52e575"</t>
+  </si>
+  <si>
+    <t>"6449669e3535f82d2f52e57e"</t>
+  </si>
+  <si>
+    <t>"644966b33535f82d2f52e581"</t>
+  </si>
+  <si>
+    <t>"644a5ec36b145a68137357d8"</t>
+  </si>
+  <si>
+    <t>"644a5f2d6b145a68137357e3"</t>
+  </si>
+  <si>
+    <t>"644a5f946b145a68137357fd"</t>
   </si>
 </sst>
 </file>
@@ -464,13 +731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E64"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="4" width="10" customWidth="1"/>
+    <col min="1" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,131 +750,1028 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>36809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42411.35225953704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44393.475985474535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>44620.39583333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>42570.72939689815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
+        <v>42752.36711206019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2">
+        <v>41617.26422188657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43600.588950590274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2">
+        <v>42638.671031053236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44994.43889387732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2">
-        <v>36809</v>
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43982.54594037037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44649.52134841435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45042.41666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45042.41666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45042.41666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45042.41666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45042.41666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45042.41666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45042.41666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45042.41666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45042.41666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="2">
+        <v>44682</v>
       </c>
     </row>
   </sheetData>
